--- a/DIS Model.xlsx
+++ b/DIS Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39390A8B-A362-D540-972B-0BD7EE40B2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C18FAF-EE8D-9C4E-A993-F7F9155AB1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{EB7B9599-826C-0941-A450-C94E56F5D818}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>FY2021A</t>
   </si>
@@ -74,7 +74,19 @@
     <t>Net Interest Expense</t>
   </si>
   <si>
-    <t>Equity in the incomes of investees</t>
+    <t>Equity in the income of investees</t>
+  </si>
+  <si>
+    <t>Income taxes on continuing operations</t>
+  </si>
+  <si>
+    <t>Net Income from continuing operations</t>
+  </si>
+  <si>
+    <t>Loss from Discontinued Operations</t>
+  </si>
+  <si>
+    <t>Reported Net Income</t>
   </si>
 </sst>
 </file>
@@ -426,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C70216-260A-864E-9577-410D2E377BA7}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,50 +461,106 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="C3">
+        <v>61768</v>
+      </c>
+      <c r="D3">
+        <v>74200</v>
+      </c>
+      <c r="E3">
+        <v>79562</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>5650</v>
+      </c>
+      <c r="D4">
+        <v>8522</v>
+      </c>
+      <c r="E4">
+        <v>9336</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>41129</v>
+      </c>
+      <c r="D6">
+        <v>48962</v>
+      </c>
+      <c r="E6">
+        <v>53139</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="C7">
+        <v>4002</v>
+      </c>
+      <c r="D7">
+        <v>5439</v>
+      </c>
+      <c r="E7">
+        <v>6062</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/DIS Model.xlsx
+++ b/DIS Model.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C18FAF-EE8D-9C4E-A993-F7F9155AB1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD729DA7-9F88-7846-9B76-3943B002C90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{EB7B9599-826C-0941-A450-C94E56F5D818}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
